--- a/silence_labels.xlsx
+++ b/silence_labels.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="uj_tabla" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="uj_tabla" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -70,18 +71,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -91,6 +82,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -496,26 +493,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col width="25.625" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="8.375" customWidth="1" style="7" min="2" max="2"/>
-    <col width="10.75" customWidth="1" style="7" min="3" max="3"/>
-    <col width="9.875" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
-    <col width="41.375" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="26.125" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
-    <col width="10.875" customWidth="1" style="7" min="7" max="16"/>
-    <col width="10.875" customWidth="1" style="7" min="17" max="16384"/>
+    <col width="29.125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.375" customWidth="1" style="3" min="2" max="2"/>
+    <col width="10.875" customWidth="1" style="3" min="3" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" s="2">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>MILDRED ALPERN (USA)
 Sleepytime Fog,2012
@@ -523,13 +515,13 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
+    <row r="2" s="2">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Donatella Arione</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
@@ -559,25 +551,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Emmanuelle Becker</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>The Boy on Top, from the series 'Child's Play'</t>
         </is>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>40 x 32 cm</t>
         </is>
@@ -587,32 +579,32 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Ed. 20 + 3AP</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Lindsay Brice</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Spook Bridge, Georgia, 2001</t>
         </is>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="3" t="n">
         <v>2001</v>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>42 x 65 cm</t>
         </is>
@@ -622,104 +614,104 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>Open ed.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Eva Brunner</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>In All Quietness 05</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>2016-2022</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>45 x 30 cm / 60 x 40 cm</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Lambda print</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>Ed. 6 + AP</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Preston Buchtel</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Unsaid</t>
         </is>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E6" s="7" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>30 x 40 cm</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G6" s="7" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>Ed. 20 +AP</t>
         </is>
       </c>
     </row>
-    <row r="7" customFormat="1" s="8">
-      <c r="A7" s="7" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Thierry Camus</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Empty bench</t>
         </is>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>20 x 20 cm</t>
         </is>
@@ -729,84 +721,79 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>Ed. 30 + AP</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
+    <row r="8" customFormat="1" s="5">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>Matteo Capone</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="8" t="n"/>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
-      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Mary Constantine</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>View From the Apex, from the series "Junkyard"</t>
         </is>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>38.1 x 30.5 cm</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>Ed. 10 + AP</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Dorie Dahlberg</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>New Year's Eve, 2021</t>
         </is>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E10" s="7" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>25.4 x 38.1 cm</t>
         </is>
@@ -816,102 +803,102 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G10" s="7" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>Ed. 10 + 2AP</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Paul Delpani</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Just A</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>40 x 30 cm</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>Ed. 5 + AP</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>Peter Devenyi</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Emporium 2</t>
         </is>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="3" t="n">
         <v>2012</v>
       </c>
-      <c r="E12" s="7" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>48.8 x 65 cm</t>
         </is>
       </c>
-      <c r="F12" s="7" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>C-print</t>
         </is>
       </c>
-      <c r="G12" s="7" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>AP</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Jennifer Eddins</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>Water Pitcher</t>
         </is>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>30 x 40 cm</t>
         </is>
@@ -921,102 +908,102 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G13" s="7" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>Ed. 5 + 2AP</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Francisca Filleul</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Rapunzel</t>
         </is>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>40 x 30 cm</t>
         </is>
       </c>
-      <c r="F14" s="7" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>C-print</t>
         </is>
       </c>
-      <c r="G14" s="7" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>AP</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>Sari Fried-Fiori</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>Solitude</t>
         </is>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>29.5 x 35 cm</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>Ed. 5 + AP</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Danielle L Goldstein</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>Shadows</t>
         </is>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E16" s="7" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>28 x 35.5 cm</t>
         </is>
@@ -1026,102 +1013,102 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>Open ed.</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Gary Justis</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Back Door</t>
         </is>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>35 x 26 cm</t>
         </is>
       </c>
-      <c r="F17" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>Ed. 5 + AP</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Casey Kaufman</t>
         </is>
       </c>
-      <c r="B18" s="7" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>Bedroom Wall No. 1</t>
         </is>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E18" s="7" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>45.7 x 30.5 cm</t>
         </is>
       </c>
-      <c r="F18" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>Ed. 10 + AP</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Theodore Kefalopoulos</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>Vastness</t>
         </is>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>40 x 40 cm</t>
         </is>
@@ -1131,67 +1118,67 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G19" s="7" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>Ed. 3</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>John Kosmer</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Dark Silent Alley</t>
         </is>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E20" s="7" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>35.5 x 28 cm</t>
         </is>
       </c>
-      <c r="F20" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G20" s="7" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t>Ed. 25 + AP</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Inbal Kristin</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>Israel</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>Echoes</t>
         </is>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="E21" s="7" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>26 x 40 cm</t>
         </is>
@@ -1201,67 +1188,67 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G21" s="7" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>Open ed.</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Catarina Lay</t>
         </is>
       </c>
-      <c r="B22" s="7" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C22" s="7" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>#9, from the series ‘wabi sabi’</t>
         </is>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E22" s="7" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>10 x 6.7 cm</t>
         </is>
       </c>
-      <c r="F22" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G22" s="7" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
         <is>
           <t>Ed. 5 + AP</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Debbie McCulliss</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>Winter Landscape</t>
         </is>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E23" s="7" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>30.5 x 60.9 cm</t>
         </is>
@@ -1271,67 +1258,67 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G23" s="7" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>Ed. 5 + AP</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Sabine Nagel (frau_odysseus)</t>
         </is>
       </c>
-      <c r="B24" s="7" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>about...absence of noice No.3</t>
         </is>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="E24" s="7" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>36.6 x 65 cm</t>
         </is>
       </c>
-      <c r="F24" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G24" s="7" t="inlineStr">
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
         <is>
           <t>Ed. 5 + AP</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Fern L. Nesson</t>
         </is>
       </c>
-      <c r="B25" s="7" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C25" s="7" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>Silence 3</t>
         </is>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E25" s="7" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>35.5 x 28 cm</t>
         </is>
@@ -1341,137 +1328,137 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G25" s="7" t="inlineStr">
+      <c r="G25" s="3" t="inlineStr">
         <is>
           <t>Ed. 24</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>Lake Roberson Newton</t>
         </is>
       </c>
-      <c r="B26" s="7" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C26" s="7" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>Many Are Called</t>
         </is>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E26" s="7" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>38 x 29 cm</t>
         </is>
       </c>
-      <c r="F26" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G26" s="7" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
         <is>
           <t>Ed. 5</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>Juergen Pawlik</t>
         </is>
       </c>
-      <c r="B27" s="7" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>Harbor Silence 1</t>
         </is>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>40 x 26.7 cm</t>
         </is>
       </c>
-      <c r="F27" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G27" s="7" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
         <is>
           <t>Ed. 9 + AP</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>Léna Piani</t>
         </is>
       </c>
-      <c r="B28" s="7" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="C28" s="7" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>You're not alone</t>
         </is>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E28" s="7" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>30 x 40 cm</t>
         </is>
       </c>
-      <c r="F28" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G28" s="7" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>Ed. 5 + 2AP / Ed. 3 + 2AP</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>Eyal Pinkas</t>
         </is>
       </c>
-      <c r="B29" s="7" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="C29" s="7" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>Regardening</t>
         </is>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E29" s="7" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>40 x 40 cm / 100 x 100 cm</t>
         </is>
@@ -1481,32 +1468,32 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G29" s="7" t="inlineStr">
+      <c r="G29" s="3" t="inlineStr">
         <is>
           <t>Ed. 5 + 2AP / Ed. 3 + 2AP</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>Ann Prochilo</t>
         </is>
       </c>
-      <c r="B30" s="7" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>Malta</t>
         </is>
       </c>
-      <c r="C30" s="7" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>Untitled #4, Barumbara</t>
         </is>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E30" s="7" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>30.5 x 45.7 cm / 25.4 x 38.1 cm / 50.8 x 76.2 cm</t>
         </is>
@@ -1516,242 +1503,242 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G30" s="7" t="inlineStr">
+      <c r="G30" s="3" t="inlineStr">
         <is>
           <t>Ed. 10 + 2AP / Ed. 6 + 2AP</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>Dieter Provoost</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>Silent dancer, Subtitle: Bronica Zenza Etrs , Bergger Pancro 400, BLue Filter</t>
         </is>
       </c>
-      <c r="D31" s="7" t="n">
+      <c r="D31" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="E31" s="7" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>40 x 30 cm</t>
         </is>
       </c>
-      <c r="F31" s="7" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>Gelatin silver print</t>
         </is>
       </c>
-      <c r="G31" s="7" t="inlineStr">
+      <c r="G31" s="3" t="inlineStr">
         <is>
           <t>Ed. 3 + AP</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>Paula Rae Gibson</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="C32" s="7" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>Silence interrupted</t>
         </is>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="E32" s="7" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>29.9 x 29.5 cm</t>
         </is>
       </c>
-      <c r="F32" s="7" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>Gelatin silver print</t>
         </is>
       </c>
-      <c r="G32" s="7" t="inlineStr">
+      <c r="G32" s="3" t="inlineStr">
         <is>
           <t>Ed. 5</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>Ábel Réti</t>
         </is>
       </c>
-      <c r="B33" s="7" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="C33" s="7" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>Tension</t>
         </is>
       </c>
-      <c r="D33" s="7" t="n">
+      <c r="D33" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E33" s="7" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>40 x 26 cm</t>
         </is>
       </c>
-      <c r="F33" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G33" s="7" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
         <is>
           <t>AP</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>Inna Rogatchi</t>
         </is>
       </c>
-      <c r="B34" s="7" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="C34" s="7" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>Dreaming Melody</t>
         </is>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E34" s="7" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>30 x 40 cm</t>
         </is>
       </c>
-      <c r="F34" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G34" s="7" t="inlineStr">
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
         <is>
           <t>Ed. 5 + AP</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>Jane Ross</t>
         </is>
       </c>
-      <c r="B35" s="7" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>40 x 53.3 cm</t>
         </is>
       </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="inlineStr">
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
         <is>
           <t>AP</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>Marian Rubin</t>
         </is>
       </c>
-      <c r="B36" s="7" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C36" s="7" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>It's So Quiet</t>
         </is>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E36" s="7" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>27.9 x 35.6 cm</t>
         </is>
       </c>
-      <c r="F36" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G36" s="7" t="inlineStr">
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
         <is>
           <t>Open ed.</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>Miranda Schmitz</t>
         </is>
       </c>
-      <c r="B37" s="7" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="C37" s="7" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>Lago di Como</t>
         </is>
       </c>
-      <c r="D37" s="7" t="n">
+      <c r="D37" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E37" s="7" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t>42.3 x 42.3 cm</t>
         </is>
@@ -1761,32 +1748,32 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G37" s="7" t="inlineStr">
+      <c r="G37" s="3" t="inlineStr">
         <is>
           <t>Ed. 5 + AP</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>Paul David Shea</t>
         </is>
       </c>
-      <c r="B38" s="7" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C38" s="7" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>Winter Moon Over Contrail</t>
         </is>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E38" s="7" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>35.5 x 28 cm</t>
         </is>
@@ -1796,102 +1783,102 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G38" s="7" t="inlineStr">
+      <c r="G38" s="3" t="inlineStr">
         <is>
           <t>Ed. 5 + AP</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>Allan Syphers</t>
         </is>
       </c>
-      <c r="B39" s="7" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C39" s="7" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>Come Back Tomorrow</t>
         </is>
       </c>
-      <c r="D39" s="7" t="n">
+      <c r="D39" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E39" s="7" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>23.3 x 40 cm</t>
         </is>
       </c>
-      <c r="F39" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G39" s="7" t="inlineStr">
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
         <is>
           <t>Not Applicable</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>Judit Erzsébet Szabó</t>
         </is>
       </c>
-      <c r="B40" s="7" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="C40" s="7" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>After Demolition</t>
         </is>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D40" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E40" s="7" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>30 x 20 cm</t>
         </is>
       </c>
-      <c r="F40" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G40" s="7" t="inlineStr">
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
         <is>
           <t>Ed. 8 + AP</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>Leanne Trivett</t>
         </is>
       </c>
-      <c r="B41" s="7" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C41" s="7" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>Brookfield Dr. #3</t>
         </is>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="E41" s="7" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>57 x 38 cm</t>
         </is>
@@ -1901,137 +1888,137 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G41" s="7" t="inlineStr">
+      <c r="G41" s="3" t="inlineStr">
         <is>
           <t>Open ed.</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>Ilya Trofimenko</t>
         </is>
       </c>
-      <c r="B42" s="7" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="C42" s="7" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>Pause</t>
         </is>
       </c>
-      <c r="D42" s="7" t="n">
+      <c r="D42" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E42" s="7" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr">
         <is>
           <t>40 x 40 cm</t>
         </is>
       </c>
-      <c r="F42" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G42" s="7" t="inlineStr">
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
         <is>
           <t>Ed. + AP</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>Ann Vardanega</t>
         </is>
       </c>
-      <c r="B43" s="7" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="C43" s="7" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>Untitled #4, from the series 'Snow Lines'</t>
         </is>
       </c>
-      <c r="D43" s="7" t="n">
+      <c r="D43" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E43" s="7" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t>26.6 x 40 cm</t>
         </is>
       </c>
-      <c r="F43" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G43" s="7" t="inlineStr">
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
         <is>
           <t>Ed. 4</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>Eddy Verloes</t>
         </is>
       </c>
-      <c r="B44" s="7" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="C44" s="7" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>Land Art</t>
         </is>
       </c>
-      <c r="D44" s="7" t="n">
+      <c r="D44" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="E44" s="7" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>23 x 35 cm</t>
         </is>
       </c>
-      <c r="F44" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G44" s="7" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
         <is>
           <t>Ed. 5</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>Eiji Yamamoto</t>
         </is>
       </c>
-      <c r="B45" s="7" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="C45" s="7" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>Sunset in the room</t>
         </is>
       </c>
-      <c r="D45" s="7" t="n">
+      <c r="D45" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="E45" s="7" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>42 x 29.7 cm</t>
         </is>
@@ -2041,53 +2028,44 @@
           <t>Giclée (archival pigment) print</t>
         </is>
       </c>
-      <c r="G45" s="7" t="inlineStr">
+      <c r="G45" s="3" t="inlineStr">
         <is>
           <t>Open ed.</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>Jagoda Zwiernik</t>
         </is>
       </c>
-      <c r="B46" s="7" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="C46" s="7" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>Absence II</t>
         </is>
       </c>
-      <c r="D46" s="7" t="n">
+      <c r="D46" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="E46" s="7" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr">
         <is>
           <t>40 x 30 cm</t>
         </is>
       </c>
-      <c r="F46" s="7" t="inlineStr">
-        <is>
-          <t>Giclée (archival pigment) print</t>
-        </is>
-      </c>
-      <c r="G46" s="7" t="inlineStr">
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>Giclée (archival pigment) print</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
         <is>
           <t>Ed. 3 + AP</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="G47" s="1" t="inlineStr">
-        <is>
-          <t>MILDRED ALPERN (USA)
-Sleepytime Fog,2012
-Giclée (archival pigment) print,38.1 x 50.8 cm</t>
         </is>
       </c>
     </row>
@@ -2101,6 +2079,995 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col width="37" customWidth="1" style="2" min="1" max="1"/>
+    <col width="46.125" customWidth="1" style="2" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>mananee@me.com</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Mildred</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Alpern</t>
+        </is>
+      </c>
+      <c r="D1">
+        <f>A1&amp;";"&amp;B1&amp;";"&amp;C1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>donatella.arione@gmail.com</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Donatella</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Arione</t>
+        </is>
+      </c>
+      <c r="D2">
+        <f>A2&amp;";"&amp;B2&amp;";"&amp;C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>em.lindbergs@gmail.com</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Emmanuelle</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Becker</t>
+        </is>
+      </c>
+      <c r="D3">
+        <f>A3&amp;";"&amp;B3&amp;";"&amp;C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>lindsay.brice1@gmail.com</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Lindsay</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Brice</t>
+        </is>
+      </c>
+      <c r="D4">
+        <f>A4&amp;";"&amp;B4&amp;";"&amp;C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>mail@evabrunner.com</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Brunner</t>
+        </is>
+      </c>
+      <c r="D5">
+        <f>A5&amp;";"&amp;B5&amp;";"&amp;C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>studio@prestonbuchtel.com</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Buchtel</t>
+        </is>
+      </c>
+      <c r="D6">
+        <f>A6&amp;";"&amp;B6&amp;";"&amp;C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>thierry.camus@yahoo.fr</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Thierry</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Camus</t>
+        </is>
+      </c>
+      <c r="D7">
+        <f>A7&amp;";"&amp;B7&amp;";"&amp;C7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>matteo.capone97@gmail.com</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Matteo</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Capone</t>
+        </is>
+      </c>
+      <c r="D8">
+        <f>A8&amp;";"&amp;B8&amp;";"&amp;C8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>skyecon@msn.com</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Constantine</t>
+        </is>
+      </c>
+      <c r="D9">
+        <f>A9&amp;";"&amp;B9&amp;";"&amp;C9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>dorieruth@gmail.com</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Dorie</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Dahlberg</t>
+        </is>
+      </c>
+      <c r="D10">
+        <f>A10&amp;";"&amp;B10&amp;";"&amp;C10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>delpani@vienna.at</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Delpani</t>
+        </is>
+      </c>
+      <c r="D11">
+        <f>A11&amp;";"&amp;B11&amp;";"&amp;C11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>anita.spingar@ph21gallery.com</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Devenyi</t>
+        </is>
+      </c>
+      <c r="D12">
+        <f>A12&amp;";"&amp;B12&amp;";"&amp;C12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>jeddins42@gmail.com</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Jennifer</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Eddins</t>
+        </is>
+      </c>
+      <c r="D13">
+        <f>A13&amp;";"&amp;B13&amp;";"&amp;C13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>ffilleul@gmail.com</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Francisca</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Filleul</t>
+        </is>
+      </c>
+      <c r="D14">
+        <f>A14&amp;";"&amp;B14&amp;";"&amp;C14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sarifried@mindspring.com</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Sari</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Fried-Fiori</t>
+        </is>
+      </c>
+      <c r="D15">
+        <f>A15&amp;";"&amp;B15&amp;";"&amp;C15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>dgold911@aol.com</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Danielle L</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Goldstein</t>
+        </is>
+      </c>
+      <c r="D16">
+        <f>A16&amp;";"&amp;B16&amp;";"&amp;C16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>gjustis@ilstu.edu</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Gary</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Justis</t>
+        </is>
+      </c>
+      <c r="D17">
+        <f>A17&amp;";"&amp;B17&amp;";"&amp;C17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>caseybkaufman@gmail.com</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Kaufman</t>
+        </is>
+      </c>
+      <c r="D18">
+        <f>A18&amp;";"&amp;B18&amp;";"&amp;C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>theod.kef@gmail.com</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Theodore</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Kefalopoulos</t>
+        </is>
+      </c>
+      <c r="D19">
+        <f>A19&amp;";"&amp;B19&amp;";"&amp;C19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>jkosmer@aol.com</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Kosmer</t>
+        </is>
+      </c>
+      <c r="D20">
+        <f>A20&amp;";"&amp;B20&amp;";"&amp;C20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>shanio4@walla.co.il</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Inbal</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Kristin</t>
+        </is>
+      </c>
+      <c r="D21">
+        <f>A21&amp;";"&amp;B21&amp;";"&amp;C21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>catarinalaygomes@gmail.com</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Catarina</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Lay</t>
+        </is>
+      </c>
+      <c r="D22">
+        <f>A22&amp;";"&amp;B22&amp;";"&amp;C22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>debbie.mcculliss@gmail.com</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Debbie</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>McCulliss</t>
+        </is>
+      </c>
+      <c r="D23">
+        <f>A23&amp;";"&amp;B23&amp;";"&amp;C23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>findme@frauodysseus.com</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Sabine</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Nagel (frau_odysseus)</t>
+        </is>
+      </c>
+      <c r="D24">
+        <f>A24&amp;";"&amp;B24&amp;";"&amp;C24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>fernlnesson@gmail.com</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Fern L.</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Nesson</t>
+        </is>
+      </c>
+      <c r="D25">
+        <f>A25&amp;";"&amp;B25&amp;";"&amp;C25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>lnewton1@southwest.tn.edu</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Lake Roberson</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Newton</t>
+        </is>
+      </c>
+      <c r="D26">
+        <f>A26&amp;";"&amp;B26&amp;";"&amp;C26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>juergen.pawlik@yahoo.com</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Juergen</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Pawlik</t>
+        </is>
+      </c>
+      <c r="D27">
+        <f>A27&amp;";"&amp;B27&amp;";"&amp;C27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>piani.m-h@wanadoo.fr</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Léna</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Piani</t>
+        </is>
+      </c>
+      <c r="D28">
+        <f>A28&amp;";"&amp;B28&amp;";"&amp;C28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>eyalpinkas@gmail.com</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Eyal</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Pinkas</t>
+        </is>
+      </c>
+      <c r="D29">
+        <f>A29&amp;";"&amp;B29&amp;";"&amp;C29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>aprochilo@prochilo.com</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Ann</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>Prochilo</t>
+        </is>
+      </c>
+      <c r="D30">
+        <f>A30&amp;";"&amp;B30&amp;";"&amp;C30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>eightstars8@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Dieter</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Provoost</t>
+        </is>
+      </c>
+      <c r="D31">
+        <f>A31&amp;";"&amp;B31&amp;";"&amp;C31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>paularaegibson@yahoo.com</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Rae Gibson</t>
+        </is>
+      </c>
+      <c r="D32">
+        <f>A32&amp;";"&amp;B32&amp;";"&amp;C32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>mr.abel.reti@gmail.com</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Ábel</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Réti</t>
+        </is>
+      </c>
+      <c r="D33">
+        <f>A33&amp;";"&amp;B33&amp;";"&amp;C33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>inna.rogatchi@gmail.com</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Inna</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Rogatchi</t>
+        </is>
+      </c>
+      <c r="D34">
+        <f>A34&amp;";"&amp;B34&amp;";"&amp;C34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>janeross088@gmail.com</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Ross</t>
+        </is>
+      </c>
+      <c r="D35">
+        <f>A35&amp;";"&amp;B35&amp;";"&amp;C35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>marianrubinphotography@gmail.com</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Marian</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Rubin</t>
+        </is>
+      </c>
+      <c r="D36">
+        <f>A36&amp;";"&amp;B36&amp;";"&amp;C36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>miranda.schmitz@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Miranda</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Schmitz</t>
+        </is>
+      </c>
+      <c r="D37">
+        <f>A37&amp;";"&amp;B37&amp;";"&amp;C37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>paul@pauldavidshea.com</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Paul David</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Shea</t>
+        </is>
+      </c>
+      <c r="D38">
+        <f>A38&amp;";"&amp;B38&amp;";"&amp;C38</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>allanmsyphers@gmail.com</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Allan</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Syphers</t>
+        </is>
+      </c>
+      <c r="D39">
+        <f>A39&amp;";"&amp;B39&amp;";"&amp;C39</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>szabo.judit33@gmail.com</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Judit Erzsébet</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Szabó</t>
+        </is>
+      </c>
+      <c r="D40">
+        <f>A40&amp;";"&amp;B40&amp;";"&amp;C40</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>ltrivett@me.com</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Leanne</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Trivett</t>
+        </is>
+      </c>
+      <c r="D41">
+        <f>A41&amp;";"&amp;B41&amp;";"&amp;C41</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>einsiedler@live.com</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Ilya</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Trofimenko</t>
+        </is>
+      </c>
+      <c r="D42">
+        <f>A42&amp;";"&amp;B42&amp;";"&amp;C42</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>ann.vardanega@gmail.com</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Ann</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>Vardanega</t>
+        </is>
+      </c>
+      <c r="D43">
+        <f>A43&amp;";"&amp;B43&amp;";"&amp;C43</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>eddy@verloes.com</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>Eddy</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>Verloes</t>
+        </is>
+      </c>
+      <c r="D44">
+        <f>A44&amp;";"&amp;B44&amp;";"&amp;C44</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>2010@eijiyamamoto.com</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Eiji</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>Yamamoto</t>
+        </is>
+      </c>
+      <c r="D45">
+        <f>A45&amp;";"&amp;B45&amp;";"&amp;C45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>medjagoda@yahoo.com</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Jagoda</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>Zwiernik</t>
+        </is>
+      </c>
+      <c r="D46">
+        <f>A46&amp;";"&amp;B46&amp;";"&amp;C46</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/silence_labels.xlsx
+++ b/silence_labels.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="306">
   <si>
     <t>USA</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>2010@eijiyamamoto.com</t>
-  </si>
-  <si>
-    <t>Matteo Capone</t>
   </si>
   <si>
     <t>Matteo</t>
@@ -983,18 +980,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1608,19 +1599,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2561,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K18" sqref="J18:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -2576,1045 +2561,1037 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D1" s="2">
         <v>2012</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" s="2">
         <v>2020</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1">
         <v>2001</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D6" s="1">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1">
-      <c r="A8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="D9" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>198</v>
+        <v>221</v>
+      </c>
+      <c r="F9" t="s">
+        <v>197</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
+      <c r="A10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="D10" s="1">
         <v>2021</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" t="s">
-        <v>198</v>
+        <v>279</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D11" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="1">
         <v>2021</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2012</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>297</v>
+        <v>218</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
+      <c r="A13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="D13" s="1">
         <v>2021</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" t="s">
-        <v>198</v>
+        <v>279</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="D14" s="1">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D15" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>198</v>
+        <v>233</v>
+      </c>
+      <c r="F15" t="s">
+        <v>197</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="D16" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F16" t="s">
-        <v>198</v>
+        <v>255</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D17" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="D18" s="1">
         <v>2021</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>198</v>
+        <v>236</v>
+      </c>
+      <c r="F18" t="s">
+        <v>197</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>161</v>
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D19" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F19" t="s">
-        <v>198</v>
+        <v>213</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="D21" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" t="s">
-        <v>198</v>
+        <v>288</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="D22" s="1">
         <v>2020</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>198</v>
+        <v>232</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D23" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F23" t="s">
-        <v>198</v>
+        <v>245</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="D24" s="1">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>198</v>
+        <v>213</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="D25" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F25" t="s">
-        <v>198</v>
+        <v>249</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D26" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D28" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>198</v>
+        <v>240</v>
+      </c>
+      <c r="F28" t="s">
+        <v>197</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
+      <c r="A29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D29" s="1">
         <v>2018</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="D30" s="1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F30" t="s">
-        <v>198</v>
+        <v>279</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="D31" s="1">
         <v>2022</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>110</v>
+      <c r="A32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="D32" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D33" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>34</v>
+      <c r="A34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D34" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D35" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="D36" s="1">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
+      </c>
+      <c r="F36" t="s">
+        <v>197</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" t="s">
-        <v>198</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="D38" s="1">
         <v>2021</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F38" t="s">
-        <v>198</v>
+        <v>301</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="D39" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>301</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="D40" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="1">
         <v>2020</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2021</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" t="s">
-        <v>198</v>
+        <v>236</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
+      <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="D42" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="D43" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
+      <c r="A44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="D44" s="1">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
+      </c>
+      <c r="F44" t="s">
+        <v>197</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>7</v>
+      <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="D45" s="1">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F45" t="s">
-        <v>198</v>
+        <v>279</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3644,13 +3621,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D1" t="str">
         <f>A1&amp;";"&amp;B1&amp;";"&amp;C1</f>
@@ -3659,13 +3636,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D46" si="0">A2&amp;";"&amp;B2&amp;";"&amp;C2</f>
@@ -3674,13 +3651,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -3689,13 +3666,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -3704,13 +3681,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -3719,13 +3696,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -3734,13 +3711,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -3749,13 +3726,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -3764,13 +3741,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -3794,13 +3771,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -3809,13 +3786,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -3824,13 +3801,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -3839,13 +3816,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -3854,13 +3831,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -3884,13 +3861,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -3899,13 +3876,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -3914,13 +3891,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -3959,13 +3936,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -3974,13 +3951,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -3989,13 +3966,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -4019,13 +3996,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -4034,13 +4011,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -4049,13 +4026,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -4079,13 +4056,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -4109,13 +4086,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -4154,13 +4131,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -4169,13 +4146,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -4184,13 +4161,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -4199,13 +4176,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -4214,13 +4191,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -4229,13 +4206,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -4244,13 +4221,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -4274,13 +4251,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -4319,13 +4296,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
